--- a/data/input/absenteeism_data_9.xlsx
+++ b/data/input/absenteeism_data_9.xlsx
@@ -476,219 +476,219 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65101</v>
+        <v>27319</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice da Costa</t>
+          <t>Maria Vitória Pinto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>10128.11</v>
+        <v>3245.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37349</v>
+        <v>9040</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elisa Silveira</t>
+          <t>Sarah da Paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>11143.97</v>
+        <v>12100.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5556</v>
+        <v>31123</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Sophia das Neves</t>
+          <t>Isaac da Paz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>4968.63</v>
+        <v>8106.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74207</v>
+        <v>51424</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcela da Luz</t>
+          <t>Marcelo Peixoto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>10512.16</v>
+        <v>8298.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20133</v>
+        <v>5807</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Maitê Souza</t>
+          <t>Mariana Lima</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>9111.68</v>
+        <v>5700.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13086</v>
+        <v>28831</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitória Farias</t>
+          <t>Srta. Luana Nascimento</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>8165.32</v>
+        <v>8820.219999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86520</v>
+        <v>70367</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leandro da Costa</t>
+          <t>Maria Luiza Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>10336.99</v>
+        <v>12435.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97451</v>
+        <v>25419</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietro Rocha</t>
+          <t>Letícia Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,56 +697,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G9" t="n">
-        <v>2711.25</v>
+        <v>2905.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16979</v>
+        <v>98709</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorenzo Teixeira</t>
+          <t>Heitor Costela</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>11938.14</v>
+        <v>6606.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8221</v>
+        <v>79812</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Aragão</t>
+          <t>Helena Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>7987.08</v>
+        <v>2823.48</v>
       </c>
     </row>
   </sheetData>
